--- a/output/hello.xlsx
+++ b/output/hello.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,6 +425,11 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>How are you?</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ABC</t>
         </is>
       </c>
     </row>
